--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1088583000</v>
+        <v>165243831.6727406</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>60477000</v>
+        <v>128034570.6456977</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>288191250.6631299</v>
+        <v>20428305.63568512</v>
       </c>
       <c r="E2" t="n">
-        <v>227951749.33687</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>70483000</v>
+        <v>45130928.44562764</v>
       </c>
       <c r="G2" t="n">
-        <v>1730264000</v>
+        <v>779134382.1233987</v>
       </c>
       <c r="H2" t="n">
-        <v>550816000</v>
+        <v>170299184.8820764</v>
       </c>
       <c r="I2" t="n">
-        <v>1037893000</v>
+        <v>432224209.8760884</v>
       </c>
       <c r="J2" t="n">
-        <v>1305723000</v>
+        <v>610202953.5829451</v>
       </c>
       <c r="K2" t="n">
         <v>326395000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>1201708941.438259</v>
+        <v>611850549.7277964</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>93016058.56174059</v>
+        <v>41534515.33402281</v>
       </c>
       <c r="N2" t="n">
-        <v>1138307000</v>
+        <v>586855510.0448173</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>97487484.73967685</v>
+        <v>34819617.76351809</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>440141515.2603232</v>
+        <v>217260076.9847717</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>742910175.9965149</v>
+        <v>443347999.2677964</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>966285824.003485</v>
+        <v>169441428.7211691</v>
       </c>
       <c r="S2" t="n">
-        <v>1745579000</v>
+        <v>811951101.5199888</v>
       </c>
       <c r="T2" t="n">
-        <v>745398000</v>
+        <v>287567783.7721044</v>
       </c>
       <c r="U2" t="n">
-        <v>429485000</v>
+        <v>179849582.8408004</v>
       </c>
       <c r="V2" t="n">
-        <v>785872000</v>
+        <v>338768406.1070851</v>
       </c>
       <c r="W2" t="n">
-        <v>3232954000</v>
+        <v>1631464795.115543</v>
       </c>
       <c r="X2" t="n">
-        <v>2142178000</v>
+        <v>544231820.4654195</v>
       </c>
       <c r="Y2" t="n">
-        <v>472089000</v>
+        <v>446865805.6931011</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>1914152015.993955</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>149496280.9017064</v>
+        <v>6287804.231471569</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>100572703.1043385</v>
+        <v>321384199.1058497</v>
       </c>
       <c r="AC2" t="n">
-        <v>6349638000</v>
+        <v>2902579561.18692</v>
       </c>
       <c r="AD2" t="n">
-        <v>14227189000</v>
+        <v>2723852481.826486</v>
       </c>
       <c r="AE2" t="n">
         <v>4210882000</v>
       </c>
       <c r="AF2" t="n">
-        <v>4251497000</v>
+        <v>1887596192.902488</v>
       </c>
       <c r="AG2" t="n">
-        <v>510152000</v>
+        <v>1055748795.799694</v>
       </c>
       <c r="AH2" t="n">
         <v>930518000</v>
@@ -3777,25 +3777,25 @@
         <v>7206733000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1343145000</v>
+        <v>633024046.749607</v>
       </c>
       <c r="AL2" t="n">
-        <v>21366599000</v>
+        <v>6222734190.191031</v>
       </c>
       <c r="AM2" t="n">
-        <v>28131776000</v>
+        <v>75794069000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1116317000</v>
+        <v>494972468.8553075</v>
       </c>
       <c r="AO2" t="n">
-        <v>13326428000</v>
+        <v>7948161016.135351</v>
       </c>
       <c r="AP2" t="n">
-        <v>584717000</v>
+        <v>229408897.5658338</v>
       </c>
       <c r="AQ2" t="n">
-        <v>171349000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165243831.6727406</v>
+        <v>99483989.08805992</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>128034570.6456977</v>
+        <v>77082392.12364043</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>20428305.63568512</v>
+        <v>12298730.39359754</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>45130928.44562764</v>
+        <v>27170786.02916161</v>
       </c>
       <c r="G2" t="n">
-        <v>779134382.1233987</v>
+        <v>469072857.8771097</v>
       </c>
       <c r="H2" t="n">
-        <v>170299184.8820764</v>
+        <v>102527532.0658691</v>
       </c>
       <c r="I2" t="n">
-        <v>432224209.8760884</v>
+        <v>260217813.5403373</v>
       </c>
       <c r="J2" t="n">
-        <v>610202953.5829451</v>
+        <v>367368774.7447815</v>
       </c>
       <c r="K2" t="n">
         <v>326395000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>611850549.7277964</v>
+        <v>368360699.4371387</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>41534515.33402281</v>
+        <v>25005588.58046269</v>
       </c>
       <c r="N2" t="n">
-        <v>586855510.0448173</v>
+        <v>353312596.0985418</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>34819617.76351809</v>
+        <v>20962927.56329063</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>217260076.9847717</v>
+        <v>130800035.9785267</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>443347999.2677964</v>
+        <v>266914819.6025921</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>169441428.7211691</v>
+        <v>102011125.470306</v>
       </c>
       <c r="S2" t="n">
-        <v>811951101.5199888</v>
+        <v>488829953.3239279</v>
       </c>
       <c r="T2" t="n">
-        <v>287567783.7721044</v>
+        <v>173128339.9402132</v>
       </c>
       <c r="U2" t="n">
-        <v>179849582.8408004</v>
+        <v>108277287.9066438</v>
       </c>
       <c r="V2" t="n">
-        <v>338768406.1070851</v>
+        <v>203953346.2482421</v>
       </c>
       <c r="W2" t="n">
-        <v>1631464795.115543</v>
+        <v>982212916.7052177</v>
       </c>
       <c r="X2" t="n">
-        <v>544231820.4654195</v>
+        <v>327651277.148933</v>
       </c>
       <c r="Y2" t="n">
-        <v>446865805.6931011</v>
+        <v>269032692.399938</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>1914152015.993955</v>
+        <v>1858448869.96393</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>6287804.231471569</v>
+        <v>216879935.4404842</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>321384199.1058497</v>
+        <v>312031696.8881824</v>
       </c>
       <c r="AC2" t="n">
-        <v>2902579561.18692</v>
+        <v>1747479409.483946</v>
       </c>
       <c r="AD2" t="n">
-        <v>2723852481.826486</v>
+        <v>1639877917.598622</v>
       </c>
       <c r="AE2" t="n">
         <v>4210882000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1887596192.902488</v>
+        <v>1136415182.07637</v>
       </c>
       <c r="AG2" t="n">
-        <v>1055748795.799694</v>
+        <v>635606791.5992013</v>
       </c>
       <c r="AH2" t="n">
         <v>930518000</v>
@@ -3777,22 +3777,22 @@
         <v>7206733000</v>
       </c>
       <c r="AK2" t="n">
-        <v>633024046.749607</v>
+        <v>381108067.525562</v>
       </c>
       <c r="AL2" t="n">
-        <v>6222734190.191031</v>
+        <v>3746357210.482098</v>
       </c>
       <c r="AM2" t="n">
         <v>75794069000</v>
       </c>
       <c r="AN2" t="n">
-        <v>494972468.8553075</v>
+        <v>1116317000</v>
       </c>
       <c r="AO2" t="n">
-        <v>7948161016.135351</v>
+        <v>13326428000</v>
       </c>
       <c r="AP2" t="n">
-        <v>229408897.5658338</v>
+        <v>138114155.4944236</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,76 +3677,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99483989.08805992</v>
+        <v>321877813.1195797</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>77082392.12364043</v>
+        <v>249398039.1640843</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>12298730.39359754</v>
+        <v>39792216.61220668</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27170786.02916161</v>
+        <v>87910358.9228332</v>
       </c>
       <c r="G2" t="n">
-        <v>469072857.8771097</v>
+        <v>1517672814.201181</v>
       </c>
       <c r="H2" t="n">
-        <v>102527532.0658691</v>
+        <v>331725115.8545507</v>
       </c>
       <c r="I2" t="n">
-        <v>260217813.5403373</v>
+        <v>841927847.1330923</v>
       </c>
       <c r="J2" t="n">
-        <v>367368774.7447815</v>
+        <v>1188611945.572475</v>
       </c>
       <c r="K2" t="n">
         <v>326395000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>368360699.4371387</v>
+        <v>1191821291.656021</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>25005588.58046269</v>
+        <v>80904919.89542948</v>
       </c>
       <c r="N2" t="n">
-        <v>353312596.0985418</v>
+        <v>1143133551.662627</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>20962927.56329063</v>
+        <v>67824997.19310093</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>130800035.9785267</v>
+        <v>423200053.8243754</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>266914819.6025921</v>
+        <v>863595832.9620388</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>102011125.470306</v>
+        <v>330054295.9851016</v>
       </c>
       <c r="S2" t="n">
-        <v>488829953.3239279</v>
+        <v>1581596373.502644</v>
       </c>
       <c r="T2" t="n">
-        <v>173128339.9402132</v>
+        <v>560152160.7627945</v>
       </c>
       <c r="U2" t="n">
-        <v>108277287.9066438</v>
+        <v>350328298.6678362</v>
       </c>
       <c r="V2" t="n">
-        <v>203953346.2482421</v>
+        <v>659885652.6621097</v>
       </c>
       <c r="W2" t="n">
-        <v>982212916.7052177</v>
+        <v>3177923890.517013</v>
       </c>
       <c r="X2" t="n">
-        <v>327651277.148933</v>
+        <v>1060107033.516549</v>
       </c>
       <c r="Y2" t="n">
-        <v>269032692.399938</v>
+        <v>870448154.3327848</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>1858448869.96393</v>
@@ -3753,19 +3758,19 @@
         <v>312031696.8881824</v>
       </c>
       <c r="AC2" t="n">
-        <v>1747479409.483946</v>
+        <v>5653923369.501227</v>
       </c>
       <c r="AD2" t="n">
-        <v>1639877917.598622</v>
+        <v>5305781590.970463</v>
       </c>
       <c r="AE2" t="n">
         <v>4210882000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1136415182.07637</v>
+        <v>3676841238.029254</v>
       </c>
       <c r="AG2" t="n">
-        <v>635606791.5992013</v>
+        <v>2056488948.214663</v>
       </c>
       <c r="AH2" t="n">
         <v>930518000</v>
@@ -3777,13 +3782,13 @@
         <v>7206733000</v>
       </c>
       <c r="AK2" t="n">
-        <v>381108067.525562</v>
+        <v>1233065063.653342</v>
       </c>
       <c r="AL2" t="n">
-        <v>3746357210.482098</v>
+        <v>12121239579.64082</v>
       </c>
       <c r="AM2" t="n">
-        <v>75794069000</v>
+        <v>28131776000</v>
       </c>
       <c r="AN2" t="n">
         <v>1116317000</v>
@@ -3792,7 +3797,7 @@
         <v>13326428000</v>
       </c>
       <c r="AP2" t="n">
-        <v>138114155.4944236</v>
+        <v>446864693.8961384</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
